--- a/Kriging/Article/SphericalModel/content/results/metrics_3_5.xlsx
+++ b/Kriging/Article/SphericalModel/content/results/metrics_3_5.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9986732405317953</v>
+        <v>0.9983690185886065</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8008567970421705</v>
+        <v>0.6356153366552649</v>
       </c>
       <c r="D2" t="n">
-        <v>0.997932355712581</v>
+        <v>0.9971681286390471</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9972746566908168</v>
+        <v>0.9979919808825833</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9976159768238592</v>
+        <v>0.9976173634844796</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0006598768729681822</v>
+        <v>0.0006000125640264542</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1182200078142083</v>
+        <v>0.2163144767592913</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001061199257695157</v>
+        <v>0.001164982771999873</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001311507476124387</v>
+        <v>0.0008035098343467255</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001186348462760351</v>
+        <v>0.0009842453870847194</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009385608080872547</v>
+        <v>0.008628496084150715</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02568806868894939</v>
+        <v>0.02449515388860527</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000186709990013</v>
+        <v>1.000124769079819</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02580672090782135</v>
+        <v>0.02469190527332553</v>
       </c>
       <c r="P2" t="n">
-        <v>3532.646914592913</v>
+        <v>3532.837119925847</v>
       </c>
       <c r="Q2" t="n">
-        <v>9485.973730038921</v>
+        <v>8521.856994253498</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9986750638837222</v>
+        <v>0.9983593150977134</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8008228511911111</v>
+        <v>0.6355778412686023</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9979572483387316</v>
+        <v>0.9971817712103483</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9973369473443309</v>
+        <v>0.9980203321471466</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9976589284633495</v>
+        <v>0.9976378862455492</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0006589700109508423</v>
+        <v>0.0006035823266307874</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1182401595377816</v>
+        <v>0.2163367356405306</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001048423348147348</v>
+        <v>0.001159370454734712</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001281531561713526</v>
+        <v>0.0007921650619314024</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001164974672441413</v>
+        <v>0.000975767621894202</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009408513683114818</v>
+        <v>0.008640739848568182</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02567041119559331</v>
+        <v>0.02456791254117426</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000186453396389</v>
+        <v>1.000125511390934</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0257889818551705</v>
+        <v>0.02476524834213081</v>
       </c>
       <c r="P3" t="n">
-        <v>3532.649665062801</v>
+        <v>3532.82525622287</v>
       </c>
       <c r="Q3" t="n">
-        <v>9485.976480508809</v>
+        <v>8521.84513055052</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9986671504057548</v>
+        <v>0.9983488910558616</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8007671187686149</v>
+        <v>0.6355323078863646</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9979572525292395</v>
+        <v>0.9971948738399743</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9973563678742657</v>
+        <v>0.998047181234859</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9976683217360423</v>
+        <v>0.9976574166770552</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0006629058570635582</v>
+        <v>0.0006074171686684499</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1182732447112906</v>
+        <v>0.2163637662231666</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001048421197408017</v>
+        <v>0.001153980260111964</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001272185887678935</v>
+        <v>0.0007814213863193875</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001160300349334607</v>
+        <v>0.0009676997789847103</v>
       </c>
       <c r="L4" t="n">
-        <v>0.009419998287439921</v>
+        <v>0.008653318489245819</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02574695820992371</v>
+        <v>0.02464583471234947</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000187567031097</v>
+        <v>1.000126308823756</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02586588243726842</v>
+        <v>0.02484379640425363</v>
       </c>
       <c r="P4" t="n">
-        <v>3532.63775514648</v>
+        <v>3532.812589479833</v>
       </c>
       <c r="Q4" t="n">
-        <v>9485.964570592487</v>
+        <v>8521.832463807485</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9986646727262939</v>
+        <v>0.9983378853948628</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8007587661967994</v>
+        <v>0.6354869887768737</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9979750469501961</v>
+        <v>0.9972069087838767</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9974087626916315</v>
+        <v>0.9980735361628851</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9977028344403276</v>
+        <v>0.9976761688396513</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0006641381553165936</v>
+        <v>0.0006114659792977708</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1182782031587326</v>
+        <v>0.216390669604244</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001039288375855884</v>
+        <v>0.00114902929288174</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001246972112058928</v>
+        <v>0.0007708754489482096</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001143125980358511</v>
+        <v>0.0009599534318550565</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009450305709675541</v>
+        <v>0.008665696151079131</v>
       </c>
       <c r="M5" t="n">
-        <v>0.025770878047063</v>
+        <v>0.02472783814444301</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000187915705833</v>
+        <v>1.000127150750087</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02588991275923185</v>
+        <v>0.0249264585090336</v>
       </c>
       <c r="P5" t="n">
-        <v>3532.634040729789</v>
+        <v>3532.799302478441</v>
       </c>
       <c r="Q5" t="n">
-        <v>9485.960856175796</v>
+        <v>8521.819176806091</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9986660371767907</v>
+        <v>0.9983262924132973</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8007159423987057</v>
+        <v>0.6354412362926609</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9979937697720493</v>
+        <v>0.9972177786754229</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9974795939585372</v>
+        <v>0.9980997103799183</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9977467238947695</v>
+        <v>0.9976942602130648</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0006634595324397984</v>
+        <v>0.0006157308559819646</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1183036252151728</v>
+        <v>0.2164178302552771</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001029679061152452</v>
+        <v>0.001144557607988335</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001212886227988004</v>
+        <v>0.000760401823169402</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001121285510295292</v>
+        <v>0.0009524800507025398</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009484886566257632</v>
+        <v>0.008678757199988478</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02575770821404339</v>
+        <v>0.02481392463883866</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000187723691723</v>
+        <v>1.000128037606082</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02587668209525103</v>
+        <v>0.02501323647232367</v>
       </c>
       <c r="P6" t="n">
-        <v>3532.6360853942</v>
+        <v>3532.785401224032</v>
       </c>
       <c r="Q6" t="n">
-        <v>9485.962900840206</v>
+        <v>8521.805275551684</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9986651906099934</v>
+        <v>0.9983140947132823</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8006698315619314</v>
+        <v>0.6353912762493249</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9980138442044143</v>
+        <v>0.9972282674958144</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9975390975688626</v>
+        <v>0.9981246162450428</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9977858541369731</v>
+        <v>0.9977115451204226</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0006638805807641676</v>
+        <v>0.000620218199130155</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1183309985997664</v>
+        <v>0.2164474886951628</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001019376044887047</v>
+        <v>0.001140242689160042</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001184251512671533</v>
+        <v>0.0007504357290287098</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001101813341085585</v>
+        <v>0.00094533981331333</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009552920993405033</v>
+        <v>0.008692000214497052</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02576588016668881</v>
+        <v>0.02490418035451388</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000187842825961</v>
+        <v>1.000128970722668</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02588489179383701</v>
+        <v>0.02510421714515241</v>
       </c>
       <c r="P7" t="n">
-        <v>3532.634816545818</v>
+        <v>3532.770878415517</v>
       </c>
       <c r="Q7" t="n">
-        <v>9485.961631991826</v>
+        <v>8521.790752743167</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9986703421437204</v>
+        <v>0.9983011885958869</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8005509421372434</v>
+        <v>0.6353381943939521</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9980281870354466</v>
+        <v>0.9972378107208307</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9976053209579778</v>
+        <v>0.9981486067377943</v>
       </c>
       <c r="F8" t="n">
-        <v>0.997825276131096</v>
+        <v>0.9977279166054028</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0006613184147889248</v>
+        <v>0.0006249661579578403</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1184015764980169</v>
+        <v>0.2164790003775289</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00101201471985774</v>
+        <v>0.001136316771872066</v>
       </c>
       <c r="J8" t="n">
-        <v>0.001152383061593722</v>
+        <v>0.000740835921591905</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001082195988958024</v>
+        <v>0.0009385769023671714</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009571360889277685</v>
+        <v>0.008705363117932161</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02571611196874296</v>
+        <v>0.02499932314999429</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000187117869528</v>
+        <v>1.00012995803275</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02583489371846491</v>
+        <v>0.02520012415206998</v>
       </c>
       <c r="P8" t="n">
-        <v>3532.64255023465</v>
+        <v>3532.755626113923</v>
       </c>
       <c r="Q8" t="n">
-        <v>9485.969365680658</v>
+        <v>8521.775500441574</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9986722426970638</v>
+        <v>0.9982877187913828</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8005239472406549</v>
+        <v>0.6352825443593255</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9980504471149906</v>
+        <v>0.9972469113049535</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9976826839145269</v>
+        <v>0.9981718130771093</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9978741571671526</v>
+        <v>0.9977436891495165</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0006603731558876527</v>
+        <v>0.0006299214884606867</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1184176018347507</v>
+        <v>0.2165120366420396</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001000589940444704</v>
+        <v>0.001132572949372089</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001115153955246923</v>
+        <v>0.0007315498935371252</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001057871585334686</v>
+        <v>0.0009320614084236707</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009600112107285586</v>
+        <v>0.008718560820985183</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02569772666769675</v>
+        <v>0.02509823675999345</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000186850411632</v>
+        <v>1.000130988464552</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0258164234964077</v>
+        <v>0.0252998322616597</v>
       </c>
       <c r="P9" t="n">
-        <v>3532.645410990013</v>
+        <v>3532.739830735671</v>
       </c>
       <c r="Q9" t="n">
-        <v>9485.972226436021</v>
+        <v>8521.759705063321</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9986704342403703</v>
+        <v>0.998273540141263</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8005032940932102</v>
+        <v>0.6352251766823448</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9980751050095695</v>
+        <v>0.9972550448348494</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9977384243299722</v>
+        <v>0.9981942329375074</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9979138226910031</v>
+        <v>0.9977585979984501</v>
       </c>
       <c r="G10" t="n">
-        <v>0.000661272609614145</v>
+        <v>0.0006351375921841126</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1184298624352434</v>
+        <v>0.2165460925732499</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0009879345046994461</v>
+        <v>0.001129226956211923</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001088330189106137</v>
+        <v>0.0007225785754066268</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001038133046835681</v>
+        <v>0.0009259026990720225</v>
       </c>
       <c r="L10" t="n">
-        <v>0.009630398072305688</v>
+        <v>0.008732178664053087</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02571522136039558</v>
+        <v>0.025201936278471</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000187104909105</v>
+        <v>1.000132073122608</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02583399899643122</v>
+        <v>0.0254043647213773</v>
       </c>
       <c r="P10" t="n">
-        <v>3532.642688766286</v>
+        <v>3532.723337803877</v>
       </c>
       <c r="Q10" t="n">
-        <v>9485.969504212293</v>
+        <v>8521.743212131527</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9986674809400339</v>
+        <v>0.9982588073153131</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8004655657453298</v>
+        <v>0.6351660506455552</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9980960739804203</v>
+        <v>0.9972623442238879</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9977899025892584</v>
+        <v>0.9982163767254594</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9979495303509837</v>
+        <v>0.9977729564454298</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0006627414625883515</v>
+        <v>0.0006405575685319622</v>
       </c>
       <c r="H11" t="n">
-        <v>0.118452259612325</v>
+        <v>0.2165811923428</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0009771723748510769</v>
+        <v>0.001126224114136097</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001063557485541003</v>
+        <v>0.0007137177278007573</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001020364038568242</v>
+        <v>0.0009199713557414496</v>
       </c>
       <c r="L11" t="n">
-        <v>0.009658317428430986</v>
+        <v>0.008745809540663212</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02574376550911602</v>
+        <v>0.02530923879795602</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000187520516221</v>
+        <v>1.000133200174777</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02586267498949631</v>
+        <v>0.02551252912233441</v>
       </c>
       <c r="P11" t="n">
-        <v>3532.638251189352</v>
+        <v>3532.706343120109</v>
       </c>
       <c r="Q11" t="n">
-        <v>9485.965066635359</v>
+        <v>8521.72621744776</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9986886526823838</v>
+        <v>0.9982433452326651</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7997435636422386</v>
+        <v>0.6351034325870846</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9983556262711738</v>
+        <v>0.9972689382559998</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9981986401220482</v>
+        <v>0.9982372808225414</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9982810179356943</v>
+        <v>0.9977863645759303</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0006522114882621726</v>
+        <v>0.0006462458270185546</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1188808712495868</v>
+        <v>0.2166183651272675</v>
       </c>
       <c r="I12" t="n">
-        <v>0.000843959568394623</v>
+        <v>0.001123511443668643</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0008668621450970029</v>
+        <v>0.0007053529431042996</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0008554076780423033</v>
+        <v>0.0009144325794705013</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00954084429999422</v>
+        <v>0.008762916550944543</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02553843159362322</v>
+        <v>0.02542136556164036</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000184541094632</v>
+        <v>1.000134383014637</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02565639264440462</v>
+        <v>0.02562555651706274</v>
       </c>
       <c r="P12" t="n">
-        <v>3532.670283360267</v>
+        <v>3532.688661178775</v>
       </c>
       <c r="Q12" t="n">
-        <v>9485.997098806274</v>
+        <v>8521.708535506425</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.998682804578189</v>
+        <v>0.9982272912890154</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7996936078017342</v>
+        <v>0.635034892150112</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9983781675637352</v>
+        <v>0.9972744785037674</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9982420991376897</v>
+        <v>0.998257756109961</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9983136524623862</v>
+        <v>0.9977990411769445</v>
       </c>
       <c r="G13" t="n">
-        <v>0.000655120100411821</v>
+        <v>0.0006521518219150585</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1189105271944902</v>
+        <v>0.2166590536914471</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0008323904590080961</v>
+        <v>0.001121232281807427</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0008459485142429793</v>
+        <v>0.0006971597468045205</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0008391679363479498</v>
+        <v>0.0009091959913501837</v>
       </c>
       <c r="L13" t="n">
-        <v>0.009567451071895893</v>
+        <v>0.008784532883491942</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02559531403229546</v>
+        <v>0.0255372633991009</v>
       </c>
       <c r="N13" t="n">
-        <v>1.00018536407687</v>
+        <v>1.000135611131501</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02571353782091228</v>
+        <v>0.02574238527580305</v>
       </c>
       <c r="P13" t="n">
-        <v>3532.66138395946</v>
+        <v>3532.670466334893</v>
       </c>
       <c r="Q13" t="n">
-        <v>9485.988199405467</v>
+        <v>8521.690340662542</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9986777265940893</v>
+        <v>0.998210450669582</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7996481032575499</v>
+        <v>0.6349630666496427</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9984032993738674</v>
+        <v>0.9972796630780801</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9982901272286648</v>
+        <v>0.9982762638272104</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9983498358068187</v>
+        <v>0.9978105873888694</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0006576456857564616</v>
+        <v>0.0006583472225342369</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1189375406576119</v>
+        <v>0.2167016924112257</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0008194917904996127</v>
+        <v>0.001119099437837936</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0008228361231670656</v>
+        <v>0.0006897538746730304</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0008211622158186738</v>
+        <v>0.0009044263566403666</v>
       </c>
       <c r="L14" t="n">
-        <v>0.009594960238860643</v>
+        <v>0.008810197429866383</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0256446034431508</v>
+        <v>0.02565827785597149</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000186078682933</v>
+        <v>1.000136899428582</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02576305489769437</v>
+        <v>0.02586437175195831</v>
       </c>
       <c r="P14" t="n">
-        <v>3532.653688486323</v>
+        <v>3532.651556143999</v>
       </c>
       <c r="Q14" t="n">
-        <v>9485.980503932331</v>
+        <v>8521.67143047165</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9986754409556915</v>
+        <v>0.9981927776905379</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7994871954566227</v>
+        <v>0.634884427143193</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9984246168377539</v>
+        <v>0.9972835686418706</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9983438328913548</v>
+        <v>0.99829380374238</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9983867901440386</v>
+        <v>0.9978210283327898</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0006587824704976049</v>
+        <v>0.0006648488352418822</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1190330624790974</v>
+        <v>0.2167483762193041</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0008085507998321518</v>
+        <v>0.001117492756618768</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0007969915340135934</v>
+        <v>0.0006827352690182384</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0008027728303496337</v>
+        <v>0.0009001132980501908</v>
       </c>
       <c r="L15" t="n">
-        <v>0.009636686685501666</v>
+        <v>0.008836146885299569</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02566675808312388</v>
+        <v>0.02578466279092829</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000186400332435</v>
+        <v>1.000138251400663</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02578531186911257</v>
+        <v>0.02599177184326292</v>
       </c>
       <c r="P15" t="n">
-        <v>3532.650234336491</v>
+        <v>3532.631901717149</v>
       </c>
       <c r="Q15" t="n">
-        <v>9485.977049782499</v>
+        <v>8521.651776044799</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9986146595944443</v>
+        <v>0.9981743109948977</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7990921900866927</v>
+        <v>0.6348004468339281</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9985849228094997</v>
+        <v>0.9972868362772437</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9985883057109831</v>
+        <v>0.9983098146377727</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9985876710160611</v>
+        <v>0.9978304083572294</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0006890126784258255</v>
+        <v>0.0006716424438769913</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1192675547300313</v>
+        <v>0.2167982305586441</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0007262752463165552</v>
+        <v>0.001116148508088526</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0006793447298214506</v>
+        <v>0.0006763285013768747</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0007028095765915299</v>
+        <v>0.0008962384956096047</v>
       </c>
       <c r="L16" t="n">
-        <v>0.009958651423882216</v>
+        <v>0.00886238534096712</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02624905100048049</v>
+        <v>0.02591606536256982</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000194953870302</v>
+        <v>1.000139664091578</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02637029437545753</v>
+        <v>0.02612422987420239</v>
       </c>
       <c r="P16" t="n">
-        <v>3532.560501771843</v>
+        <v>3532.611568873217</v>
       </c>
       <c r="Q16" t="n">
-        <v>9485.88731721785</v>
+        <v>8521.631443200868</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9986039090519001</v>
+        <v>0.9981552612486873</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7990795814612908</v>
+        <v>0.6347173321176089</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9986120015197729</v>
+        <v>0.9972892141205448</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9986162900363281</v>
+        <v>0.9983258341729568</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9986151632466685</v>
+        <v>0.9978393505372082</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0006943595665142781</v>
+        <v>0.0006786505477020774</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1192750397547341</v>
+        <v>0.21684757104462</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0007123773493638939</v>
+        <v>0.001115170304587259</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0006658779303247913</v>
+        <v>0.000669918276518723</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0006891287676776147</v>
+        <v>0.0008925445627174844</v>
       </c>
       <c r="L17" t="n">
-        <v>0.009995089238008211</v>
+        <v>0.008888655646680042</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02635070334003019</v>
+        <v>0.02605092220444561</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000196466754694</v>
+        <v>1.000141121385504</v>
       </c>
       <c r="O17" t="n">
-        <v>0.02647241624332355</v>
+        <v>0.02626016992096429</v>
       </c>
       <c r="P17" t="n">
-        <v>3532.545041248519</v>
+        <v>3532.590808440348</v>
       </c>
       <c r="Q17" t="n">
-        <v>9485.871856694526</v>
+        <v>8521.610682768</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9985901736631027</v>
+        <v>0.9981353077590411</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7990264243515638</v>
+        <v>0.6346281919375292</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9986339023631967</v>
+        <v>0.9972905022863321</v>
       </c>
       <c r="E18" t="n">
-        <v>0.998635296627383</v>
+        <v>0.9983396970300181</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9986356498653366</v>
+        <v>0.9978467069711651</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0007011909972489888</v>
+        <v>0.0006859911246088449</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1193065961113357</v>
+        <v>0.2169004885061706</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0007011369445584656</v>
+        <v>0.001114640375519729</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0006567314546569092</v>
+        <v>0.0006643710474688206</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0006789341232600694</v>
+        <v>0.0008895056870265044</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01003003075034229</v>
+        <v>0.00891530442329787</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02648001127735766</v>
+        <v>0.02619143227486509</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000198399685543</v>
+        <v>1.000142647815251</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02660232144912875</v>
+        <v>0.02640180860445751</v>
       </c>
       <c r="P18" t="n">
-        <v>3532.525460488125</v>
+        <v>3532.56929173642</v>
       </c>
       <c r="Q18" t="n">
-        <v>9485.852275934132</v>
+        <v>8521.58916606407</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9985763558178761</v>
+        <v>0.9981145262693107</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7990069516405107</v>
+        <v>0.6345306192077568</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9986561034743684</v>
+        <v>0.9972912670079592</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9986539386162062</v>
+        <v>0.9983521097296918</v>
       </c>
       <c r="F19" t="n">
-        <v>0.998656116932451</v>
+        <v>0.9978531001644677</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0007080634384998244</v>
+        <v>0.0006936363098024438</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1193181559537941</v>
+        <v>0.216958411893486</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0006897424301157663</v>
+        <v>0.001114325782302946</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0006477604352521031</v>
+        <v>0.0006594040996085811</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0006687492081755846</v>
+        <v>0.0008868647172538037</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01009379755864397</v>
+        <v>0.008943813958054178</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02660946144700837</v>
+        <v>0.0263369760945034</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000200344220182</v>
+        <v>1.000144237586497</v>
       </c>
       <c r="O19" t="n">
-        <v>0.02673236954422292</v>
+        <v>0.02654852146953974</v>
       </c>
       <c r="P19" t="n">
-        <v>3532.505953731767</v>
+        <v>3532.54712556819</v>
       </c>
       <c r="Q19" t="n">
-        <v>9485.832769177774</v>
+        <v>8521.566999895842</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.998563225475724</v>
+        <v>0.9980929416382716</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7989873554844524</v>
+        <v>0.6344314148079435</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9986824296354501</v>
+        <v>0.9972909214470451</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9986757216605671</v>
+        <v>0.9983634235812333</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9986802227313583</v>
+        <v>0.9978584081395875</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0007145939433336018</v>
+        <v>0.0007015769581279965</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1193297890785401</v>
+        <v>0.2170173039106221</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0006762307720574466</v>
+        <v>0.001114467940070827</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0006372778566222216</v>
+        <v>0.000654876856367162</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0006567535708162409</v>
+        <v>0.0008846720412025442</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01013447056125618</v>
+        <v>0.00897511247241032</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02673189000676162</v>
+        <v>0.02648729805261376</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000202192005037</v>
+        <v>1.000145888797562</v>
       </c>
       <c r="O20" t="n">
-        <v>0.02685536359686877</v>
+        <v>0.0267000508523328</v>
       </c>
       <c r="P20" t="n">
-        <v>3532.487592176029</v>
+        <v>3532.524359918677</v>
       </c>
       <c r="Q20" t="n">
-        <v>9485.814407622036</v>
+        <v>8521.544234246327</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9985490147151695</v>
+        <v>0.9980704963323701</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7989304220604558</v>
+        <v>0.6343308604099581</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9987119691440433</v>
+        <v>0.9972900347342323</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9986869465081899</v>
+        <v>0.998373398622688</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9987008841701397</v>
+        <v>0.997862797427244</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0007216618048878998</v>
+        <v>0.0007098342352804048</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1193635872184203</v>
+        <v>0.2170769973449901</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0006610698931855104</v>
+        <v>0.001114832718346064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0006318761622646104</v>
+        <v>0.0006508853386383963</v>
       </c>
       <c r="K21" t="n">
-        <v>0.000646471931618275</v>
+        <v>0.0008828588665532289</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01015666561533489</v>
+        <v>0.009011637377696204</v>
       </c>
       <c r="M21" t="n">
-        <v>0.02686376378856655</v>
+        <v>0.0266427144878371</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000204191833209</v>
+        <v>1.000147605849727</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02698784649869014</v>
+        <v>0.02685671563239111</v>
       </c>
       <c r="P21" t="n">
-        <v>3532.467907886189</v>
+        <v>3532.500958173247</v>
       </c>
       <c r="Q21" t="n">
-        <v>9485.794723332196</v>
+        <v>8521.520832500897</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9985337569199675</v>
+        <v>0.9980471753387364</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7988777250791124</v>
+        <v>0.6342244172346897</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9987335319393582</v>
+        <v>0.9972881386570234</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9987062934709972</v>
+        <v>0.998381955723651</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9987213573864065</v>
+        <v>0.9978659969983276</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0007292504194239904</v>
+        <v>0.0007184136642598108</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1193948704229369</v>
+        <v>0.2171401866119352</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0006500029884373017</v>
+        <v>0.001115612731630977</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0006225658906828659</v>
+        <v>0.000647461210492581</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0006362839565645409</v>
+        <v>0.0008815371529560685</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01019145392185809</v>
+        <v>0.00905598750885413</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0270046369985599</v>
+        <v>0.02680323980901956</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000206339006723</v>
+        <v>1.000149389891468</v>
       </c>
       <c r="O22" t="n">
-        <v>0.02712937039671877</v>
+        <v>0.02701853033429634</v>
       </c>
       <c r="P22" t="n">
-        <v>3532.446986748145</v>
+        <v>3532.476930041502</v>
       </c>
       <c r="Q22" t="n">
-        <v>9485.773802194151</v>
+        <v>8521.496804369153</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9985176299285438</v>
+        <v>0.9980228919972938</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7988218552332438</v>
+        <v>0.6341120772256463</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9987578265773659</v>
+        <v>0.9972851963994196</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9987209769617651</v>
+        <v>0.9983887481716743</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9987409834934038</v>
+        <v>0.9978678221321097</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0007372713372513516</v>
+        <v>0.0007273471259536987</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1194280371768962</v>
+        <v>0.2172068764941389</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0006375339907588242</v>
+        <v>0.001116823125389132</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0006154998055210532</v>
+        <v>0.0006447432090857888</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0006265175238808515</v>
+        <v>0.0008807832068572387</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01023658039158541</v>
+        <v>0.009100769301976909</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02715274087917004</v>
+        <v>0.02696937385171741</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000208608499031</v>
+        <v>1.000151247552227</v>
       </c>
       <c r="O23" t="n">
-        <v>0.02727815836355861</v>
+        <v>0.02718599880841269</v>
       </c>
       <c r="P23" t="n">
-        <v>3532.425109138022</v>
+        <v>3532.452213434293</v>
       </c>
       <c r="Q23" t="n">
-        <v>9485.751924584029</v>
+        <v>8521.472087761944</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9985032378063073</v>
+        <v>0.9979976896760023</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7988049187949913</v>
+        <v>0.6339960559019941</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9987847677185087</v>
+        <v>0.9972815752775908</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9987360250148313</v>
+        <v>0.9983936404477649</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9987621535772863</v>
+        <v>0.9978683891010408</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0007444294008222791</v>
+        <v>0.0007366186659675002</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1194380913782589</v>
+        <v>0.2172757517637191</v>
       </c>
       <c r="I24" t="n">
-        <v>0.000623706699886743</v>
+        <v>0.001118312792117677</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0006082582833132691</v>
+        <v>0.0006427855624094897</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0006159827703927882</v>
+        <v>0.0008805489971691442</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01029158123868335</v>
+        <v>0.009146120652908579</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02728423355753793</v>
+        <v>0.02714071970246</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000210633849566</v>
+        <v>1.000153175514382</v>
       </c>
       <c r="O24" t="n">
-        <v>0.02741025840164057</v>
+        <v>0.02735872095315829</v>
       </c>
       <c r="P24" t="n">
-        <v>3532.405785075953</v>
+        <v>3532.426880427127</v>
       </c>
       <c r="Q24" t="n">
-        <v>9485.73260052196</v>
+        <v>8521.446754754777</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9984838731127335</v>
+        <v>0.9979715443569884</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7987958508678196</v>
+        <v>0.6338761465733082</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9988060934568581</v>
+        <v>0.9972767618352305</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9987370134265705</v>
+        <v>0.9983969528855935</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9987736291667829</v>
+        <v>0.9978675966296608</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0007540606216635229</v>
+        <v>0.0007462371201014384</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1194434744915421</v>
+        <v>0.2173469351210404</v>
       </c>
       <c r="I25" t="n">
-        <v>0.000612761462427907</v>
+        <v>0.001120292958837471</v>
       </c>
       <c r="J25" t="n">
-        <v>0.000607782633371764</v>
+        <v>0.000641460088788346</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0006102722353212719</v>
+        <v>0.0008808763598595991</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01034630905514133</v>
+        <v>0.009192338309320015</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02746016426869153</v>
+        <v>0.02731734101448086</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000213358971814</v>
+        <v>1.000155175615286</v>
       </c>
       <c r="O25" t="n">
-        <v>0.02758700173010296</v>
+        <v>0.02753676093304584</v>
       </c>
       <c r="P25" t="n">
-        <v>3532.380075586208</v>
+        <v>3532.400934305804</v>
       </c>
       <c r="Q25" t="n">
-        <v>9485.706891032216</v>
+        <v>8521.420808633455</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9984639383870862</v>
+        <v>0.9979443645331783</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7987612706464369</v>
+        <v>0.6337476242674428</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9988221247331469</v>
+        <v>0.997271315006231</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9987422747972913</v>
+        <v>0.9983979660703952</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9987844433384649</v>
+        <v>0.9978653748096115</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0007639753535639325</v>
+        <v>0.0007562361523774949</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1194640028047427</v>
+        <v>0.2174232315136767</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0006045335585272484</v>
+        <v>0.001122533689837454</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0006052507222501061</v>
+        <v>0.0006410546623931807</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0006048908379928697</v>
+        <v>0.0008817941734330608</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01039434580288731</v>
+        <v>0.009242762192145508</v>
       </c>
       <c r="M26" t="n">
-        <v>0.02764010408019356</v>
+        <v>0.02749974822389279</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000216164312583</v>
+        <v>1.000157254855173</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02776777267679684</v>
+        <v>0.02772063328414245</v>
       </c>
       <c r="P26" t="n">
-        <v>3532.353950058102</v>
+        <v>3532.374313719385</v>
       </c>
       <c r="Q26" t="n">
-        <v>9485.68076550411</v>
+        <v>8521.394188047036</v>
       </c>
     </row>
   </sheetData>
